--- a/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3265,155 +3265,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
-Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
-"VCN name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DNS Label"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'n'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, DNS will not be enabled for the VCN.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
-                                                                    not required to be configured(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXHub-VCN in sample data), 
-                                                                 - specify name of the component- component will be configured with the
-                                                                    mentioned name(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
-                                                                 - specify 'y' if component needs to be configured with default name i.e. 
-                                                                    &lt;vcnname&gt;_ngw(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -7048,6 +6899,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
+Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
+"VCN name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"CIDR Blocks"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Enter comma seperated CIDRs to have multiple CIDR blocks attached to VCN.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DNS Label"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, DNS will not be enabled for the VCN.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
+                                                                    not required to be configured(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXHub-VCN in sample data), 
+                                                                 - specify name of the component- component will be configured with the
+                                                                    mentioned name(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
+                                                                 - specify 'y' if component needs to be configured with default name i.e. 
+                                                                    &lt;vcnname&gt;_ngw(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
   </si>
@@ -11051,70 +11073,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11486,7 +11450,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11497,7 +11461,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -11601,7 +11565,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -11621,25 +11585,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>805</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>806</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>444</v>
@@ -11654,23 +11618,23 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -13567,13 +13531,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>752</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>753</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>401</v>
@@ -13587,7 +13551,7 @@
         <v>402</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -13600,7 +13564,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -13613,13 +13577,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>401</v>
@@ -13628,7 +13592,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -13646,7 +13610,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -13659,13 +13623,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>401</v>
@@ -13674,10 +13638,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -13692,7 +13656,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -13705,13 +13669,13 @@
         <v>366</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>401</v>
@@ -13725,7 +13689,7 @@
         <v>402</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -13738,7 +13702,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -13751,13 +13715,13 @@
         <v>366</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>401</v>
@@ -13766,10 +13730,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -13784,7 +13748,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -13797,13 +13761,13 @@
         <v>366</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>401</v>
@@ -13812,10 +13776,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -13830,7 +13794,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -13843,13 +13807,13 @@
         <v>366</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>401</v>
@@ -13863,7 +13827,7 @@
         <v>402</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -13876,7 +13840,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -13889,13 +13853,13 @@
         <v>366</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>401</v>
@@ -13906,10 +13870,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>768</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>769</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -13922,7 +13886,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -13935,13 +13899,13 @@
         <v>366</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>401</v>
@@ -13950,10 +13914,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -13968,7 +13932,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -13981,13 +13945,13 @@
         <v>366</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>401</v>
@@ -13996,10 +13960,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -14014,7 +13978,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -14027,13 +13991,13 @@
         <v>366</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>401</v>
@@ -14047,7 +14011,7 @@
         <v>402</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -14060,7 +14024,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -14073,13 +14037,13 @@
         <v>366</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>401</v>
@@ -14090,10 +14054,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>768</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>769</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -14106,7 +14070,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -14119,13 +14083,13 @@
         <v>366</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>401</v>
@@ -14134,10 +14098,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -14152,7 +14116,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -14165,13 +14129,13 @@
         <v>366</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>401</v>
@@ -14180,10 +14144,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -14198,7 +14162,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -14649,7 +14613,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="122" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -14659,7 +14623,7 @@
       <c r="G1" s="123"/>
       <c r="H1" s="124"/>
       <c r="I1" s="115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -14707,7 +14671,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>98</v>
@@ -14754,7 +14718,7 @@
         <v>104</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M3" s="49" t="s">
         <v>380</v>
@@ -15057,7 +15021,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -15095,7 +15059,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>444</v>
@@ -15138,7 +15102,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>380</v>
@@ -15262,7 +15226,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="125" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -15344,7 +15308,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -15383,7 +15347,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -15408,7 +15372,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>127</v>
@@ -15432,7 +15396,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>129</v>
@@ -15469,7 +15433,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -15502,7 +15466,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>134</v>
@@ -15541,7 +15505,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>136</v>
@@ -15578,7 +15542,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -15685,13 +15649,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>850</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>851</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>140</v>
@@ -15963,10 +15927,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>418</v>
@@ -15978,10 +15942,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>603</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>604</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>418</v>
@@ -15996,7 +15960,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>418</v>
@@ -16008,10 +15972,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>607</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>418</v>
@@ -16200,7 +16164,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -16255,7 +16219,7 @@
         <v>163</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L2" s="41" t="s">
         <v>164</v>
@@ -16282,10 +16246,10 @@
         <v>420</v>
       </c>
       <c r="T2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -16555,7 +16519,7 @@
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
       <c r="J1" s="118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K1" s="129"/>
       <c r="L1" s="129"/>
@@ -16611,7 +16575,7 @@
         <v>191</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>192</v>
@@ -17399,7 +17363,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -17461,10 +17425,10 @@
         <v>420</v>
       </c>
       <c r="O2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -17644,7 +17608,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -17817,7 +17781,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17859,31 +17823,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>921</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>922</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>924</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="69" t="s">
         <v>925</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="70" t="s">
         <v>926</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>927</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>425</v>
@@ -17901,10 +17865,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="69" t="s">
+        <v>927</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>928</v>
-      </c>
-      <c r="T2" s="69" t="s">
-        <v>929</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -17916,10 +17880,10 @@
         <v>332</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Y2" s="69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="69" t="s">
         <v>444</v>
@@ -17960,16 +17924,16 @@
         <v>325</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>964</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>965</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>349</v>
@@ -17992,7 +17956,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>339</v>
@@ -18025,7 +17989,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z4" s="40"/>
     </row>
@@ -18034,16 +17998,16 @@
         <v>325</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>352</v>
@@ -18068,7 +18032,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>354</v>
@@ -18089,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -18101,7 +18065,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z5" s="40"/>
     </row>
@@ -24251,7 +24215,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -24269,7 +24233,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -24278,10 +24242,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
+        <v>940</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>941</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>942</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>444</v>
@@ -24304,7 +24268,7 @@
         <v>325</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>432</v>
@@ -24313,7 +24277,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -30364,7 +30328,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -30398,40 +30362,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D2" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>945</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>946</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>946</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>947</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="95" t="s">
         <v>948</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>949</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>444</v>
@@ -30469,19 +30433,19 @@
         <v>325</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -30490,7 +30454,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -30505,7 +30469,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O4" s="76" t="s">
         <v>464</v>
@@ -37357,22 +37321,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="52" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>332</v>
@@ -37381,13 +37345,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="97" t="s">
+        <v>924</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>925</v>
       </c>
-      <c r="J1" s="97" t="s">
-        <v>926</v>
-      </c>
       <c r="K1" s="62" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -37419,7 +37383,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -37427,7 +37391,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="96" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>435</v>
@@ -37445,16 +37409,16 @@
         <v>429</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3" s="38">
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -37462,7 +37426,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="96" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>353</v>
@@ -37476,7 +37440,7 @@
       </c>
       <c r="F4" s="40"/>
       <c r="H4" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37484,7 +37448,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -37495,7 +37459,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="H5" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -37504,7 +37468,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -37512,16 +37476,16 @@
       </c>
       <c r="F6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="96" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -37529,16 +37493,16 @@
       </c>
       <c r="F7" s="40"/>
       <c r="H7" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="96" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -37546,7 +37510,7 @@
       </c>
       <c r="F8" s="40"/>
       <c r="H8" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -37559,11 +37523,11 @@
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -37572,32 +37536,32 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F10" s="40"/>
       <c r="H10" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="96" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F11" s="40"/>
       <c r="H11" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -37606,15 +37570,15 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -37623,13 +37587,13 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="H13" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -37638,483 +37602,483 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="H15" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="H16" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" s="40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" s="40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -38172,91 +38136,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="85" customFormat="1" ht="148" customHeight="1">
       <c r="A1" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>853</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="93" t="s">
         <v>854</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>855</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>856</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>857</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>858</v>
       </c>
       <c r="G1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="93" t="s">
+        <v>858</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>859</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>860</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>861</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>862</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="93" t="s">
+        <v>914</v>
+      </c>
+      <c r="N1" s="93" t="s">
         <v>863</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="O1" s="93" t="s">
+        <v>864</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>866</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>867</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>868</v>
+      </c>
+      <c r="T1" s="93" t="s">
+        <v>916</v>
+      </c>
+      <c r="U1" s="93" t="s">
+        <v>869</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>870</v>
+      </c>
+      <c r="W1" s="84" t="s">
+        <v>871</v>
+      </c>
+      <c r="X1" s="84" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y1" s="93" t="s">
         <v>915</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>864</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>867</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>868</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>869</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>917</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>870</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>871</v>
-      </c>
-      <c r="W1" s="84" t="s">
-        <v>872</v>
-      </c>
-      <c r="X1" s="84" t="s">
-        <v>873</v>
-      </c>
-      <c r="Y1" s="93" t="s">
-        <v>916</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="84" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB1" s="84" t="s">
         <v>874</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AC1" s="84" t="s">
         <v>875</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>876</v>
       </c>
       <c r="AD1" s="84" t="s">
         <v>254</v>
@@ -38277,7 +38241,7 @@
         <v>259</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AK1" s="84" t="s">
         <v>324</v>
@@ -38309,7 +38273,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>39</v>
@@ -38332,13 +38296,13 @@
         <v>ash-drg</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>365</v>
@@ -38358,13 +38322,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="87" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="W2" s="87" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Y2" s="87" t="b">
         <v>1</v>
@@ -38373,7 +38337,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="87" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>172</v>
@@ -38439,7 +38403,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -38453,7 +38417,7 @@
         <v/>
       </c>
       <c r="N3" s="87" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>401</v>
@@ -38468,7 +38432,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="T3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38485,7 +38449,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="87" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y3" s="87" t="b">
         <v>0</v>
@@ -38497,7 +38461,7 @@
         <v>171</v>
       </c>
       <c r="AB3" s="87" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AC3" s="87" t="s">
         <v>174</v>
@@ -38521,7 +38485,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="87" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AK3" s="86" t="s">
         <v>330</v>
@@ -38549,7 +38513,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87" t="s">
@@ -38579,7 +38543,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="T4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -38592,14 +38556,14 @@
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
       <c r="X4" s="87" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Y4" s="87"/>
       <c r="Z4" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AA4" s="87" t="s">
         <v>889</v>
-      </c>
-      <c r="AA4" s="87" t="s">
-        <v>890</v>
       </c>
       <c r="AB4" s="87"/>
       <c r="AC4" s="87" t="s">
@@ -38646,7 +38610,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
@@ -38664,7 +38628,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="87"/>
@@ -38681,7 +38645,7 @@
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
@@ -38725,7 +38689,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -38741,7 +38705,7 @@
       </c>
       <c r="N6" s="87"/>
       <c r="O6" s="87" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="87"/>
@@ -38798,7 +38762,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
@@ -38814,7 +38778,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="87" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="87"/>
@@ -38869,7 +38833,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87"/>
@@ -38938,7 +38902,7 @@
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
@@ -39007,7 +38971,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -39076,7 +39040,7 @@
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -39145,7 +39109,7 @@
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -39212,7 +39176,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -39279,7 +39243,7 @@
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -39413,7 +39377,7 @@
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -39480,7 +39444,7 @@
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -39547,7 +39511,7 @@
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -39614,7 +39578,7 @@
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -39681,7 +39645,7 @@
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -39748,7 +39712,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -39815,7 +39779,7 @@
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -39882,7 +39846,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -39949,7 +39913,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -41428,10 +41392,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>608</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -41441,10 +41405,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -41454,10 +41418,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>612</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>613</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -41467,10 +41431,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>615</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -41480,10 +41444,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>616</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>617</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -41493,10 +41457,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>618</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>619</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -41506,10 +41470,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -41519,10 +41483,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>812</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>813</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>814</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -41532,10 +41496,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>961</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>962</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -41914,10 +41878,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="42">
       <c r="A1" s="84" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -42430,16 +42394,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>779</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>780</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -42451,7 +42415,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -42462,16 +42426,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>621</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>622</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -42483,7 +42447,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -42495,7 +42459,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -42507,7 +42471,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -42519,7 +42483,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -42531,7 +42495,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -42543,7 +42507,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -42555,7 +42519,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -42567,7 +42531,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -42579,7 +42543,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -42591,7 +42555,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -42603,7 +42567,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -42615,7 +42579,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -42627,7 +42591,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -42639,7 +42603,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -42651,7 +42615,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -42663,7 +42627,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -42675,7 +42639,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -42687,7 +42651,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -42699,7 +42663,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -42711,7 +42675,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -42723,7 +42687,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -42735,7 +42699,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -42747,7 +42711,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -42759,7 +42723,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -42771,7 +42735,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -42783,7 +42747,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -42795,7 +42759,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -42807,7 +42771,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -42819,7 +42783,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -42831,7 +42795,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -42843,7 +42807,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -42855,7 +42819,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -42867,7 +42831,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -42879,7 +42843,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -42891,7 +42855,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -42903,7 +42867,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -42915,7 +42879,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -42927,7 +42891,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -42939,7 +42903,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -42951,7 +42915,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -42963,7 +42927,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -42974,16 +42938,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D47" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>647</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>648</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -42995,7 +42959,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -43007,7 +42971,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -43019,7 +42983,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -43031,7 +42995,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -43043,7 +43007,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -43055,7 +43019,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -43067,7 +43031,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -43079,7 +43043,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -43091,7 +43055,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -43103,7 +43067,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -43115,7 +43079,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -43127,7 +43091,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -43139,7 +43103,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -43151,7 +43115,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -43163,7 +43127,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -43174,16 +43138,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D63" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>824</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>825</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -43195,7 +43159,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -43207,7 +43171,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -43219,7 +43183,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -43230,16 +43194,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D67" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>660</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>661</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -43251,7 +43215,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -43263,7 +43227,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -43275,7 +43239,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -43287,7 +43251,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -43299,7 +43263,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -43311,7 +43275,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -43323,7 +43287,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -43335,7 +43299,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -43347,7 +43311,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -43359,7 +43323,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -43371,7 +43335,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -43383,7 +43347,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -43395,7 +43359,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -43407,7 +43371,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -43419,7 +43383,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -43431,7 +43395,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -43443,7 +43407,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -43455,7 +43419,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -43467,7 +43431,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -43478,16 +43442,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="111" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D87" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>679</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>680</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -43499,7 +43463,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -43511,7 +43475,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -43523,7 +43487,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -43535,7 +43499,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -43547,7 +43511,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -43559,7 +43523,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -43571,7 +43535,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -43583,7 +43547,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -43595,7 +43559,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -43607,7 +43571,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -43619,7 +43583,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -43631,7 +43595,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -43643,7 +43607,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -43655,7 +43619,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -43667,7 +43631,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -43679,7 +43643,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -43691,7 +43655,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -43703,7 +43667,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -43715,7 +43679,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -43727,7 +43691,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -43739,7 +43703,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -43751,7 +43715,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -43763,7 +43727,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -43775,7 +43739,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -43787,7 +43751,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -43799,7 +43763,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -43811,7 +43775,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -43823,7 +43787,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -43835,7 +43799,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -43846,16 +43810,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -43867,7 +43831,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="111" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -43879,7 +43843,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -43891,7 +43855,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -43903,7 +43867,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -43915,7 +43879,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -43927,7 +43891,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -43939,7 +43903,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -43951,7 +43915,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -43963,7 +43927,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -43975,7 +43939,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="111" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -43987,7 +43951,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="111" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -43999,7 +43963,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="111" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -44011,7 +43975,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -44023,7 +43987,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -44035,7 +43999,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -44047,7 +44011,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -44059,7 +44023,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -44070,16 +44034,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D135" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E135" s="38" t="s">
         <v>708</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>709</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -44091,7 +44055,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -44103,7 +44067,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -44115,7 +44079,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -44127,7 +44091,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -44139,7 +44103,7 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -44151,7 +44115,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -44163,7 +44127,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -44175,7 +44139,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -44187,7 +44151,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -44199,7 +44163,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -44211,7 +44175,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -44223,7 +44187,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -44235,7 +44199,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -44247,7 +44211,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -44259,7 +44223,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -44271,7 +44235,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -44283,7 +44247,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -44295,7 +44259,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -44307,7 +44271,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -44319,7 +44283,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -44330,16 +44294,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="E156" s="38" t="s">
         <v>789</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>790</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -44350,16 +44314,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>958</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>959</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -44371,7 +44335,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -44382,16 +44346,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="111" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -44403,7 +44367,7 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
@@ -44415,7 +44379,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -44427,7 +44391,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -44439,7 +44403,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -44451,7 +44415,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -44463,7 +44427,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -44475,7 +44439,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -44487,7 +44451,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -44499,7 +44463,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -44511,7 +44475,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -44523,7 +44487,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -44535,7 +44499,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -44547,7 +44511,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -44559,7 +44523,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -44571,7 +44535,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -44583,7 +44547,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -44595,7 +44559,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -44607,7 +44571,7 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
@@ -44619,7 +44583,7 @@
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
@@ -44631,7 +44595,7 @@
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -44643,7 +44607,7 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
@@ -44655,7 +44619,7 @@
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
@@ -44667,7 +44631,7 @@
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
@@ -44679,7 +44643,7 @@
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
@@ -44691,7 +44655,7 @@
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
@@ -44703,7 +44667,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -44715,7 +44679,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -44727,7 +44691,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -44739,7 +44703,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -44751,7 +44715,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -44763,7 +44727,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -44775,7 +44739,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -44787,7 +44751,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -44799,7 +44763,7 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
@@ -44811,7 +44775,7 @@
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
@@ -44823,7 +44787,7 @@
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
@@ -44835,7 +44799,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -44847,7 +44811,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -44855,7 +44819,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -45022,7 +44986,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -45030,7 +44994,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
@@ -45076,16 +45040,16 @@
         <v>418</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>791</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>792</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -45095,7 +45059,7 @@
         <v>418</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29">
@@ -45106,16 +45070,16 @@
         <v>418</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>794</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>795</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -45125,7 +45089,7 @@
         <v>418</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -45421,7 +45385,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -45441,7 +45405,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>472</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -45449,7 +45413,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
@@ -45468,7 +45432,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -45503,13 +45467,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -45524,7 +45488,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -45559,7 +45523,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>23</v>
@@ -45571,13 +45535,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="74" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>1017</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>1018</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>1019</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>464</v>
@@ -45609,10 +45573,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="74" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>1020</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>1021</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
@@ -45643,10 +45607,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -45685,7 +45649,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="VCN names should be unique and are case-sensitie across sheets." sqref="C3:C500"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Make sure to specify unique names while declaring multiple DRGs for a region." sqref="E3:E500"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="- specify 'spoke:&lt;hub vcn name&gt;' if VCN is a spoke of a hub VCN, _x000a_- specify 'peer:&lt;vcn name&gt;' if a VCN needs to be normal peered with some other VCN _x000a_- specify 'none' in case it is none of these " sqref="J4:J500"/>
@@ -45694,21 +45658,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" Default value is &quot;VCN Name&quot; truncated to 15 chars (when left empty)._x000a__x000a_If specified as 'n', DNS will not be enabled for the VCN." sqref="K3:K500"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify a Region to create VCN.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:I500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45745,14 +45703,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
       <c r="F1" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G1" s="116"/>
     </row>
@@ -45764,19 +45722,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>804</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>805</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>806</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -45787,19 +45745,19 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>1023</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>1025</v>
-      </c>
       <c r="G3" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -46166,7 +46124,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -46175,7 +46133,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -46389,10 +46347,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>51</v>
@@ -46401,7 +46359,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>36</v>
@@ -46437,13 +46395,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>52</v>
@@ -46485,13 +46443,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1036">
   <si>
     <t>Region</t>
   </si>
@@ -7072,6 +7072,9 @@
       <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
+  </si>
+  <si>
+    <t>Backup Network NSGs</t>
   </si>
 </sst>
 </file>
@@ -7618,7 +7621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7940,6 +7943,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30292,8 +30302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -30327,25 +30337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
       <c r="T1" s="101"/>
@@ -30397,11 +30407,15 @@
       <c r="N2" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="135" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q2" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
       <c r="T2" s="51"/>
@@ -30425,8 +30439,10 @@
       <c r="K3" s="56"/>
       <c r="L3" s="73"/>
       <c r="M3" s="56"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="38"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="106" t="s">
@@ -30468,10 +30484,11 @@
       <c r="M4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
         <v>464</v>
       </c>
     </row>
@@ -30488,7 +30505,8 @@
       <c r="L5" s="64"/>
       <c r="M5" s="56"/>
       <c r="N5" s="64"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="136"/>
+      <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="51"/>
@@ -37233,7 +37251,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
@@ -37260,11 +37278,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1000</xm:sqref>
+          <xm:sqref>C6:C501</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:F1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
@@ -37272,23 +37302,11 @@
           </x14:formula1>
           <xm:sqref>D6:D501</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C501</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!C$2:$D501,"*?")+1,4,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:F1000</xm:sqref>
+          <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1036">
   <si>
     <t>Region</t>
   </si>
@@ -7881,6 +7881,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7943,13 +7950,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11485,7 +11485,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -11497,10 +11497,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -11514,7 +11514,9 @@
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="40" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
@@ -11574,18 +11576,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>809</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -13198,17 +13200,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -13299,25 +13301,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -13448,28 +13450,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -14434,15 +14436,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -14622,26 +14624,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>801</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="115" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="117" t="s">
         <v>594</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="119"/>
     </row>
     <row r="2" spans="1:16" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -15030,18 +15032,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>595</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -15235,27 +15237,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130" t="s">
         <v>471</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15627,26 +15629,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="122.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -15907,13 +15909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -16173,29 +16175,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -16517,29 +16519,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="118" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="120" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="130"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="132"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -17216,14 +17218,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -17372,24 +17374,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -17617,17 +17619,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -17790,34 +17792,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="119"/>
     </row>
     <row r="2" spans="1:26" s="66" customFormat="1" ht="43.5">
       <c r="A2" s="69" t="s">
@@ -24224,16 +24226,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>943</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="95" t="s">
@@ -30337,25 +30339,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
       <c r="T1" s="101"/>
@@ -30407,10 +30409,10 @@
       <c r="N2" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="135" t="s">
+      <c r="O2" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="135" t="s">
+      <c r="P2" s="114" t="s">
         <v>1035</v>
       </c>
       <c r="Q2" s="102" t="s">
@@ -30440,7 +30442,7 @@
       <c r="L3" s="73"/>
       <c r="M3" s="56"/>
       <c r="N3" s="64"/>
-      <c r="O3" s="136"/>
+      <c r="O3" s="115"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
@@ -30505,7 +30507,7 @@
       <c r="L5" s="64"/>
       <c r="M5" s="56"/>
       <c r="N5" s="64"/>
-      <c r="O5" s="136"/>
+      <c r="O5" s="115"/>
       <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:24">
@@ -37286,13 +37288,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:F1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
@@ -37304,7 +37306,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
@@ -41380,13 +41382,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -42370,16 +42372,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -45003,20 +45005,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>913</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
@@ -45422,22 +45424,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>1034</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="117" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -45720,17 +45722,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="115" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="117" t="s">
         <v>811</v>
       </c>
-      <c r="G1" s="116"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80" t="s">
@@ -46097,16 +46099,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -46251,8 +46253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="G1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -46278,28 +46280,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="121" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="123" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="32" t="s">

--- a/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1035">
   <si>
     <t>Region</t>
   </si>
@@ -6635,9 +6635,6 @@
   </si>
   <si>
     <t>bmdb</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
   </si>
   <si>
     <t xml:space="preserve">18.12.0.0 </t>
@@ -11471,7 +11468,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -17762,8 +17759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="O1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -18016,7 +18013,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E5" s="107" t="s">
         <v>966</v>
@@ -18065,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -30413,7 +30410,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="114" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>444</v>
@@ -30457,7 +30454,7 @@
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>963</v>
@@ -30472,7 +30469,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -37468,7 +37465,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -37488,7 +37485,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -37505,7 +37502,7 @@
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -37522,7 +37519,7 @@
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -37556,7 +37553,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -37573,7 +37570,7 @@
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -37590,7 +37587,7 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
@@ -37607,7 +37604,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -37622,7 +37619,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -42827,7 +42824,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -42839,7 +42836,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -42851,7 +42848,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -42863,7 +42860,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -42875,7 +42872,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -42911,7 +42908,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -43427,7 +43424,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -43439,7 +43436,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -43451,7 +43448,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -43687,7 +43684,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -43699,7 +43696,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -43711,7 +43708,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -43723,7 +43720,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -43735,7 +43732,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -43747,7 +43744,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -43759,7 +43756,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -43771,7 +43768,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -43783,7 +43780,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -44195,7 +44192,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -44207,7 +44204,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -44219,7 +44216,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -44231,7 +44228,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -44243,7 +44240,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -44255,7 +44252,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -44267,7 +44264,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -44303,7 +44300,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -44699,7 +44696,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -44711,7 +44708,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -44723,7 +44720,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -44735,7 +44732,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -44747,7 +44744,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -44759,7 +44756,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -44831,7 +44828,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -44839,7 +44836,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -45425,7 +45422,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -45452,7 +45449,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -45487,13 +45484,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -45508,7 +45505,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -45543,7 +45540,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>23</v>
@@ -45555,13 +45552,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>1016</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>1017</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>1018</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>464</v>
@@ -45593,10 +45590,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>1019</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>1020</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
@@ -45627,10 +45624,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -45765,16 +45762,16 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>1022</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>1023</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>1024</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>846</v>
@@ -46144,7 +46141,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -46153,7 +46150,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -46367,10 +46364,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>51</v>
@@ -46415,10 +46412,10 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>749</v>
@@ -46463,10 +46460,10 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>851</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-Flat-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
@@ -11457,7 +11457,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -17759,8 +17759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="O3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -24127,7 +24127,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
@@ -30301,8 +30301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="H3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -37252,11 +37252,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5 N6:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1048576">
@@ -37270,6 +37270,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576">
       <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J3:J1000">
+      <formula1>db_sersion_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
